--- a/UATHouseProject.xlsx
+++ b/UATHouseProject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javar\Documents\GitHub\Business-Application-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5745260C-10DA-47BF-B47B-BACB03A35BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1226B-EE64-428F-A336-C424BDB5998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52515" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT Test Plan" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Steps To Execute</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Haukainga Home Winds</t>
   </si>
   <si>
-    <t>Samuel Kennedy, Javarn Tromp</t>
-  </si>
-  <si>
     <t>Log in as valid user</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>Component 4</t>
-  </si>
-  <si>
-    <t>Checkout a property</t>
   </si>
   <si>
     <t>- Click on property navigation
@@ -177,14 +171,50 @@
     <t>Property page should show any booking information on it, should calculate booking price with discount.</t>
   </si>
   <si>
-    <t>Works as intended</t>
+    <t>Samuel Kennedy, Javarn Tromp de Haas</t>
+  </si>
+  <si>
+    <t>Book a property</t>
+  </si>
+  <si>
+    <t>Booking is added to the database.</t>
+  </si>
+  <si>
+    <t>Cancel a booking</t>
+  </si>
+  <si>
+    <t>Access the bookings page, click cancel button.</t>
+  </si>
+  <si>
+    <t>Any booking</t>
+  </si>
+  <si>
+    <t>Booking should be removed from the database, and not be displayed on the bookings page anymore.</t>
+  </si>
+  <si>
+    <t>Booking is successfully removed from the database.</t>
+  </si>
+  <si>
+    <t>Function seems to work without error, though styling of the page could be better to make it more user friendly.</t>
+  </si>
+  <si>
+    <t>Happy with how this works. Functional and well styled.</t>
+  </si>
+  <si>
+    <t>25/06/2023  5:00pm</t>
+  </si>
+  <si>
+    <t>25/06/2023  10:00pm</t>
+  </si>
+  <si>
+    <t>The user is successfully logged out, but would be better if the welcome message was not still displayed after clicking the button.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,14 +319,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -663,14 +685,85 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -681,113 +774,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,8 +847,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>479567</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468361</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>155644</xdr:rowOff>
     </xdr:to>
@@ -869,8 +891,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>479567</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468361</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>21174</xdr:rowOff>
     </xdr:to>
@@ -913,8 +935,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>479567</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468361</xdr:colOff>
       <xdr:row>203</xdr:row>
       <xdr:rowOff>21174</xdr:rowOff>
     </xdr:to>
@@ -957,8 +979,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>479567</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468361</xdr:colOff>
       <xdr:row>269</xdr:row>
       <xdr:rowOff>21174</xdr:rowOff>
     </xdr:to>
@@ -1288,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1299,34 +1321,34 @@
     <col min="4" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="7" width="32.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="59.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="20"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1335,12 +1357,14 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="32"/>
       <c r="E3" s="20"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1349,12 +1373,14 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32"/>
       <c r="E4" s="20"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1363,14 +1389,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:23" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="20"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1379,16 +1405,16 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1410,10 +1436,10 @@
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="21" t="s">
         <v>13</v>
       </c>
@@ -1426,156 +1452,174 @@
       <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:23" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:23" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:23" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:23" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="54"/>
+        <v>44</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="31"/>
       <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:23" s="5" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:23" s="5" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:23" s="5" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:1" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:1" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1589,36 +1633,26 @@
     <row r="27" spans="1:1" s="5" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C1:J1"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A2:B2"/>
@@ -1626,11 +1660,23 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -1673,25 +1719,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="59.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1699,12 +1745,12 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1712,12 +1758,12 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1725,12 +1771,12 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1738,15 +1784,15 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1768,10 +1814,10 @@
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1781,10 +1827,10 @@
       <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
@@ -1804,34 +1850,34 @@
         <v>1</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="61"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="19"/>
@@ -1843,8 +1889,8 @@
         <v>4</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="19"/>
@@ -1856,47 +1902,47 @@
         <v>5</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
     </row>
     <row r="14" spans="1:22" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:22" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="19"/>
@@ -1908,21 +1954,21 @@
         <v>3</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>4</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="19"/>
@@ -1934,39 +1980,39 @@
         <v>5</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -1986,8 +2032,8 @@
         <v>3</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="19"/>
@@ -1999,8 +2045,8 @@
         <v>4</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="19"/>
@@ -2012,60 +2058,46 @@
         <v>5</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -2079,12 +2111,26 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.23622047244094491"/>
